--- a/分数表.xlsx
+++ b/分数表.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1" state="visible"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2" state="visible"/>
+    <sheet name="工作表 2" sheetId="2" r:id="rId2" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
